--- a/paralel programming/src/Graphs of results.xlsx
+++ b/paralel programming/src/Graphs of results.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\My Files\DTU\IT Elektronik\5. Semester\Cuncurrent Programming\Assignments\Git\ParallelProgrammering\paralel programming\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE975099-D7B4-4D8F-A554-47D949482977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8066DE8-51B2-417B-9227-F3EADA7E3D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1245" windowWidth="21600" windowHeight="11235" xr2:uid="{4F3BC836-366F-46B6-AA55-1D285ECD18CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F3BC836-366F-46B6-AA55-1D285ECD18CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">('Ark1'!$B$79,'Ark1'!$B$94,'Ark1'!$B$109,'Ark1'!$B$124,'Ark1'!$B$139,'Ark1'!$B$154,'Ark1'!$B$169,'Ark1'!$B$184)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">('Ark1'!$B$79,'Ark1'!$B$94,'Ark1'!$B$109,'Ark1'!$B$124,'Ark1'!$B$139,'Ark1'!$B$154,'Ark1'!$B$169,'Ark1'!$B$184)</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,24 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>SingleRun:</t>
-  </si>
-  <si>
-    <t>File=shakespeare,txt, pattern='Something is rotten in the state of Denmark'ntasks=1, nthreads=1, warmups=0, runs=10</t>
-  </si>
-  <si>
-    <t>File=shakespeare,txt, pattern='Something is rotten in the state of Denmark'ntasks=1, nthreads=1, warmups=10, runs=10</t>
   </si>
   <si>
     <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=1, warmups=10, runs=10</t>
   </si>
   <si>
     <t>Concurrent Run:</t>
-  </si>
-  <si>
-    <t>File=shakespeare,txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=1, warmups=10, runs=10</t>
   </si>
   <si>
     <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=2, nthreads=1, warmups=10, runs=10</t>
@@ -79,12 +66,183 @@
   <si>
     <t>Average speedup</t>
   </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=1, nthreads=1, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=1, nthreads=1, warmups=0, runs=10</t>
+  </si>
+  <si>
+    <t>Problem 4</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=2, nthreads=2, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=3, nthreads=2, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=5, nthreads=2, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=10, nthreads=2, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=20, nthreads=2, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=50, nthreads=2, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=2, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=2, nthreads=3, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=3, nthreads=3, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=5, nthreads=3, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=10, nthreads=3, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=20, nthreads=3, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=50, nthreads=3, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=3, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=2, nthreads=5, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=3, nthreads=5, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=5, nthreads=5, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=10, nthreads=5, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=20, nthreads=5, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=50, nthreads=5, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=5, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=2, nthreads=10, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=3, nthreads=10, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=5, nthreads=10, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=10, nthreads=10, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=20, nthreads=10, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=50, nthreads=10, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=10, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=2, nthreads=20, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=3, nthreads=20, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=5, nthreads=20, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=10, nthreads=20, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=20, nthreads=20, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=50, nthreads=20, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=20, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=2, nthreads=50, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=3, nthreads=50, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=5, nthreads=50, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=10, nthreads=50, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=20, nthreads=50, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=50, nthreads=50, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=50, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=2, nthreads=100, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=3, nthreads=100, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=5, nthreads=100, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=10, nthreads=100, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=20, nthreads=100, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=50, nthreads=100, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=100, warmups=10, runs=10</t>
+  </si>
+  <si>
+    <t>Problem 3</t>
+  </si>
+  <si>
+    <t>Problem 2</t>
+  </si>
+  <si>
+    <t>Problem 1</t>
+  </si>
+  <si>
+    <t>nThreads</t>
+  </si>
+  <si>
+    <t>nTasks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +258,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -117,16 +289,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +503,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=1, nthreads=1, warmups=10, runs=10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -199,7 +568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$A$21</c:f>
+              <c:f>'Ark1'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -234,7 +603,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$A$23:$A$32</c:f>
+              <c:f>'Ark1'!$A$27:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -273,7 +642,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$23:$B$32</c:f>
+              <c:f>'Ark1'!$B$27:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -349,6 +718,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -411,6 +835,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -519,6 +998,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=1, nthreads=1, warmups=0, runs=10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -559,7 +1070,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$A$2</c:f>
+              <c:f>'Ark1'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -594,7 +1105,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$A$4:$A$13</c:f>
+              <c:f>'Ark1'!$A$8:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -633,7 +1144,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$4:$B$13</c:f>
+              <c:f>'Ark1'!$B$8:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -709,6 +1220,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -771,6 +1337,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -901,7 +1522,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>File=shakespeare,txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=1, warmups=10, runs=10</a:t>
+              <a:t>File=shakespeare.txt, pattern='Something is rotten in the state of Denmark'ntasks=100, nthreads=1, warmups=10, runs=10</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -951,7 +1572,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$A$39</c:f>
+              <c:f>'Ark1'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -986,7 +1607,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$A$41:$A$50</c:f>
+              <c:f>'Ark1'!$A$48:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1025,7 +1646,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$41:$B$50</c:f>
+              <c:f>'Ark1'!$B$48:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1074,7 +1695,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$A$51</c:f>
+              <c:f>'Ark1'!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1109,7 +1730,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$A$53:$A$62</c:f>
+              <c:f>'Ark1'!$A$60:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1148,7 +1769,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$53:$B$62</c:f>
+              <c:f>'Ark1'!$B$60:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1535,6 +2156,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>With CachedThreadPool</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1602,7 +2248,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Ark1'!$C$71,'Ark1'!$C$77,'Ark1'!$C$83,'Ark1'!$C$89,'Ark1'!$C$95,'Ark1'!$C$101,'Ark1'!$C$107)</c:f>
+              <c:f>('Ark1'!$C$78,'Ark1'!$C$84,'Ark1'!$C$90,'Ark1'!$C$96,'Ark1'!$C$102,'Ark1'!$C$108,'Ark1'!$C$114)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1632,7 +2278,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Ark1'!$B$71,'Ark1'!$B$77,'Ark1'!$B$83,'Ark1'!$B$89,'Ark1'!$B$95,'Ark1'!$B$101,'Ark1'!$B$107)</c:f>
+              <c:f>('Ark1'!$B$78,'Ark1'!$B$84,'Ark1'!$B$90,'Ark1'!$B$96,'Ark1'!$B$102,'Ark1'!$B$108,'Ark1'!$B$114)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4192,16 +4838,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317127</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4228,16 +4874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4266,16 +4912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4304,16 +4950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38325</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>130212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>500567</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>174027</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4640,545 +5286,1529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDE6B44-FFC4-4B93-86EA-646EC4B7345C}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A2:W267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="P95" sqref="P95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N121" sqref="N121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B8">
+        <v>0.5591216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.57886079999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.25001719999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0.252724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.25012649999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.25400630000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.25017270000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.25333450000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0.25677149999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.255353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0.5591216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B27" s="2">
+        <v>0.2493274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0.57886079999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B28" s="3">
+        <v>0.24935370000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>0.25001719999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B29" s="3">
+        <v>0.2490945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>0.252724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B30" s="3">
+        <v>0.24929780000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>0.25012649999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B31" s="3">
+        <v>0.24926200000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0.25400630000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B32" s="3">
+        <v>0.25453940000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>0.25017270000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B33" s="3">
+        <v>0.2539496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>0.25333450000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B34" s="3">
+        <v>0.25385999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>0.25677149999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B35" s="3">
+        <v>0.2525347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>0.255353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B36" s="3">
+        <v>0.25445329999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.2481804</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B49">
+        <v>0.24816959999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>0.2489121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>0.24964620000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>0.24918560000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>0.25398779999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>0.2486776</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>0.25547150000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>0.2497916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>0.253527</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>1</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.2493274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="B60">
+        <v>0.24851780000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>2</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.24935370000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B61">
+        <v>0.2487791</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>3</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.2490945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="B62">
+        <v>0.2483601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>4</v>
       </c>
-      <c r="B26" s="3">
-        <v>0.24929780000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="B63">
+        <v>0.2491207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>5</v>
       </c>
-      <c r="B27" s="3">
-        <v>0.24926200000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="B64">
+        <v>0.2490059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>6</v>
       </c>
-      <c r="B28" s="3">
-        <v>0.25453940000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="B65">
+        <v>0.25605820000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>7</v>
       </c>
-      <c r="B29" s="3">
-        <v>0.2539496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="B66">
+        <v>0.24928049999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>8</v>
       </c>
-      <c r="B30" s="3">
-        <v>0.25385999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="B67">
+        <v>0.25524059999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>9</v>
       </c>
-      <c r="B31" s="3">
-        <v>0.2525347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="B68">
+        <v>0.24892529999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>10</v>
       </c>
-      <c r="B32" s="3">
-        <v>0.25445329999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>0.2481804</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="B69">
+        <v>0.25633630000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>2</v>
       </c>
-      <c r="B42">
-        <v>0.24816959999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>0.2489121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>0.24964620000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>0.24918560000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>0.25398779999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47">
-        <v>0.2486776</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>0.25547150000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>9</v>
       </c>
-      <c r="B49">
-        <v>0.2497916</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50">
-        <v>0.253527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>0.24851780000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="B78">
+        <v>1.95</v>
+      </c>
+      <c r="C78">
         <v>2</v>
       </c>
-      <c r="B54">
-        <v>0.2487791</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55">
-        <v>0.2483601</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <v>0.2491207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>5</v>
-      </c>
-      <c r="B57">
-        <v>0.2490059</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>0.25605820000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>7</v>
-      </c>
-      <c r="B59">
-        <v>0.24928049999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>8</v>
-      </c>
-      <c r="B60">
-        <v>0.25524059999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>9</v>
-      </c>
-      <c r="B61">
-        <v>0.24892529999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>10</v>
-      </c>
-      <c r="B62">
-        <v>0.25633630000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71">
-        <v>1.95</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77">
-        <v>2.88</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>2.88</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>4.5</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>6.27</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>6.42</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>6.76</v>
+      </c>
+      <c r="C108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>6.92</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B83">
-        <v>4.5</v>
-      </c>
-      <c r="C83">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="O122" s="6"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R122" s="17"/>
+      <c r="S122" s="17"/>
+      <c r="T122" s="17"/>
+      <c r="U122" s="17"/>
+      <c r="V122" s="17"/>
+      <c r="W122" s="18"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>1.96</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="19">
+        <v>2</v>
+      </c>
+      <c r="R123" s="20">
+        <v>3</v>
+      </c>
+      <c r="S123" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="T123" s="20">
+        <v>10</v>
+      </c>
+      <c r="U123" s="20">
+        <v>20</v>
+      </c>
+      <c r="V123" s="20">
+        <v>50</v>
+      </c>
+      <c r="W123" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O124" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P124" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q124" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="R124" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="S124" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="T124" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="U124" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="V124" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="W124" s="5">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="O125" s="12"/>
+      <c r="P125" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q125" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="R125" s="5">
+        <v>2.74</v>
+      </c>
+      <c r="S125" s="5">
+        <v>2.72</v>
+      </c>
+      <c r="T125" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="U125" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="V125" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="W125" s="5">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89">
-        <v>6.27</v>
-      </c>
-      <c r="C89">
+      <c r="B126">
+        <v>1.47</v>
+      </c>
+      <c r="O126" s="12"/>
+      <c r="P126" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q126" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="R126" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="S126" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="T126" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="U126" s="5">
+        <v>3.84</v>
+      </c>
+      <c r="V126" s="5">
+        <v>3.59</v>
+      </c>
+      <c r="W126" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O127" s="12"/>
+      <c r="P127" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95">
-        <v>6.42</v>
-      </c>
-      <c r="C95">
+      <c r="Q127" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="R127" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="S127" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="T127" s="5">
+        <v>5.66</v>
+      </c>
+      <c r="U127" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="V127" s="5">
+        <v>5.59</v>
+      </c>
+      <c r="W127" s="5">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="O128" s="12"/>
+      <c r="P128" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101">
-        <v>6.76</v>
-      </c>
-      <c r="C101">
+      <c r="Q128" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="R128" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="S128" s="5">
+        <v>3.95</v>
+      </c>
+      <c r="T128" s="5">
+        <v>5.54</v>
+      </c>
+      <c r="U128" s="5">
+        <v>5.64</v>
+      </c>
+      <c r="V128" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="W128" s="5">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129">
+        <v>1.63</v>
+      </c>
+      <c r="O129" s="12"/>
+      <c r="P129" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107">
-        <v>6.92</v>
-      </c>
-      <c r="C107">
+      <c r="Q129" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="R129" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="S129" s="5">
+        <v>3.84</v>
+      </c>
+      <c r="T129" s="5">
+        <v>5.51</v>
+      </c>
+      <c r="U129" s="5">
+        <v>5.82</v>
+      </c>
+      <c r="V129" s="5">
+        <v>6.08</v>
+      </c>
+      <c r="W129" s="5">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O130" s="14"/>
+      <c r="P130" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="4"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="1"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="1"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="1"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="1"/>
+      <c r="Q130" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="R130" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="S130" s="5">
+        <v>4.01</v>
+      </c>
+      <c r="T130" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="U130" s="5">
+        <v>5.88</v>
+      </c>
+      <c r="V130" s="5">
+        <v>6.19</v>
+      </c>
+      <c r="W130" s="5">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267">
+        <v>6.11</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A119:N120"/>
+    <mergeCell ref="A72:N73"/>
+    <mergeCell ref="A41:N42"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="O124:O130"/>
+    <mergeCell ref="O122:P123"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
